--- a/converter/sample_questions.xlsx
+++ b/converter/sample_questions.xlsx
@@ -1,97 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ichil\Desktop\test_claude\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E7095F-E192-4E37-8648-2C2FE8CCD6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="問題" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="問題" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ジャンル</t>
-  </si>
-  <si>
-    <t>サブジャンル</t>
-  </si>
-  <si>
-    <t>問題</t>
-  </si>
-  <si>
-    <t>答え</t>
-  </si>
-  <si>
-    <t>解説</t>
-  </si>
-  <si>
-    <t>難易度</t>
-  </si>
-  <si>
-    <t>基礎</t>
-  </si>
-  <si>
-    <t>"apple"の意味は？</t>
-  </si>
-  <si>
-    <t>りんご</t>
-  </si>
-  <si>
-    <t>果物の名前。赤や青のものがある。</t>
-  </si>
-  <si>
-    <t>英会話</t>
-    <rPh sb="0" eb="3">
-      <t>エイカイワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -106,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,116 +420,396 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="50" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ジャンル</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>サブジャンル</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>問題</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>答え</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>解説</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>難易度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>英単語</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>基礎</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>"apple"の意味は？</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>りんご</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>果物の名前。赤や青のものがある。</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>英単語</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>基礎</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>"beautiful"の意味は？</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>美しい</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>人や物の見た目が魅力的なことを表す形容詞。</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>英単語</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>応用</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>"accomplish"の意味は？</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>達成する、成し遂げる</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>目標や任務を完了させることを意味する動詞。</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>英単語</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>応用</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>"sophisticated"の意味は？</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>洗練された、高度な</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>複雑で洗練されているさまを表す形容詞。</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>日本史</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>古代</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>大化の改新が起きた年は？</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>645年</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>中大兄皇子と中臣鎌足が蘇我氏を倒した政変。</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>日本史</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中世</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>鎌倉幕府を開いた人物は？</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>源頼朝</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1192年（いい国作ろう）に征夷大将軍となった。</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>日本史</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>近代</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>明治維新が始まった年は？</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1868年</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>江戸幕府が終わり、天皇を中心とした新政府が誕生。</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>数学</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>算数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3 × 7 = ?</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>九九の基本。3の段の7番目。</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>数学</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>代数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>x + 5 = 12 のとき、x = ?</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>方程式の基本。両辺から5を引くと答えが出る。</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>数学</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>幾何</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>正三角形の内角の大きさは？</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60度</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>正三角形は3つの角が等しく、180÷3=60度。</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>